--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7135643-E4AF-491D-A583-CDAF81F26DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB7234-0317-4304-9496-1B8D69690E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal Consumption Rate of Power " sheetId="1" r:id="rId1"/>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB7234-0317-4304-9496-1B8D69690E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E077F-D255-4C85-85CB-AA871EC71047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coal Consumption Rate of Power " sheetId="1" r:id="rId1"/>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E077F-D255-4C85-85CB-AA871EC71047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF5505-6498-4DD0-AAFC-676DF767984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EF5505-6498-4DD0-AAFC-676DF767984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51D84F-0AA4-49AC-97E1-327AA68A4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51D84F-0AA4-49AC-97E1-327AA68A4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F264652-20DF-4973-9CBB-4963FCBEF21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F264652-20DF-4973-9CBB-4963FCBEF21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D9354-008B-448E-833A-149DD0B981E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D9354-008B-448E-833A-149DD0B981E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059BB08-0144-4973-9A41-0756A6B0C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059BB08-0144-4973-9A41-0756A6B0C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54677571-9711-4590-9ABF-E403ED01893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54677571-9711-4590-9ABF-E403ED01893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3ED20-CFB7-4218-AA1A-7C26B475DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3ED20-CFB7-4218-AA1A-7C26B475DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BF179-54E8-4CB0-94A1-F4C21918912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683BF179-54E8-4CB0-94A1-F4C21918912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3D101-E0CD-4988-A62B-A4B66C29349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3D101-E0CD-4988-A62B-A4B66C29349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08919BD-7E67-4F43-89C7-4AE22FD733AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08919BD-7E67-4F43-89C7-4AE22FD733AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69593FA-BA5C-49AA-A304-A0C7B3B999E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69593FA-BA5C-49AA-A304-A0C7B3B999E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9422ACF-98F0-4660-A956-3489B71D30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3D101-E0CD-4988-A62B-A4B66C29349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE1DDC-A63C-4915-B7F4-E1B40BD410CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>

--- a/inst/extdata/power generation by type - backup.xlsx
+++ b/inst/extdata/power generation by type - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE1DDC-A63C-4915-B7F4-E1B40BD410CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5A166F-702D-4582-B01E-4F90ACAAF685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
